--- a/Code/Results/Cases/Case_5_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24585287596728</v>
+        <v>13.65895741983901</v>
       </c>
       <c r="C2">
-        <v>19.65679783936483</v>
+        <v>11.2043421740263</v>
       </c>
       <c r="D2">
-        <v>4.349752032392336</v>
+        <v>5.586399925725559</v>
       </c>
       <c r="E2">
-        <v>10.75199295917139</v>
+        <v>10.32407531646839</v>
       </c>
       <c r="F2">
-        <v>39.55806285492921</v>
+        <v>33.62818623086564</v>
       </c>
       <c r="I2">
-        <v>24.98728089548701</v>
+        <v>25.14875172362442</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00160569425094</v>
+        <v>15.77829257748993</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74430778138212</v>
+        <v>13.15024845339819</v>
       </c>
       <c r="C3">
-        <v>18.23135996649492</v>
+        <v>10.59599414025422</v>
       </c>
       <c r="D3">
-        <v>4.351184597293722</v>
+        <v>5.591683893182625</v>
       </c>
       <c r="E3">
-        <v>10.16114676093358</v>
+        <v>10.20885581676488</v>
       </c>
       <c r="F3">
-        <v>37.32414659280705</v>
+        <v>33.05243794692844</v>
       </c>
       <c r="I3">
-        <v>23.96147998601572</v>
+        <v>24.95110829641694</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.66385076543624</v>
+        <v>15.52038966883093</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77654075796265</v>
+        <v>12.83248428438939</v>
       </c>
       <c r="C4">
-        <v>17.31483249847677</v>
+        <v>10.20746421422591</v>
       </c>
       <c r="D4">
-        <v>4.355577189453241</v>
+        <v>5.595648450364507</v>
       </c>
       <c r="E4">
-        <v>9.795417379959819</v>
+        <v>10.14062121320593</v>
       </c>
       <c r="F4">
-        <v>35.93372189077201</v>
+        <v>32.70431194916925</v>
       </c>
       <c r="I4">
-        <v>23.33901860723269</v>
+        <v>24.83528284550419</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.80432731217245</v>
+        <v>15.36518962880919</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37041684540006</v>
+        <v>12.7018695763316</v>
       </c>
       <c r="C5">
-        <v>16.93070140924234</v>
+        <v>10.04556421834095</v>
       </c>
       <c r="D5">
-        <v>4.358172309658139</v>
+        <v>5.597443460257481</v>
       </c>
       <c r="E5">
-        <v>9.645709369845406</v>
+        <v>10.11347197480437</v>
       </c>
       <c r="F5">
-        <v>35.3627092209134</v>
+        <v>32.56397969273642</v>
       </c>
       <c r="I5">
-        <v>23.08730059157005</v>
+        <v>24.78950267544478</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.444254201699</v>
+        <v>15.30282391434682</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30226411946722</v>
+        <v>12.68012065065981</v>
       </c>
       <c r="C6">
-        <v>16.86626716223869</v>
+        <v>10.01847178260564</v>
       </c>
       <c r="D6">
-        <v>4.358649693597826</v>
+        <v>5.597752307453222</v>
       </c>
       <c r="E6">
-        <v>9.620812832536243</v>
+        <v>10.10900425618849</v>
       </c>
       <c r="F6">
-        <v>35.26763936592682</v>
+        <v>32.54077528743601</v>
       </c>
       <c r="I6">
-        <v>23.04562335015395</v>
+        <v>24.78198745753725</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.38386578876347</v>
+        <v>15.29252375947475</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77111150146419</v>
+        <v>12.83072698592323</v>
       </c>
       <c r="C7">
-        <v>17.30969536825843</v>
+        <v>10.20529493959321</v>
       </c>
       <c r="D7">
-        <v>4.355609026826051</v>
+        <v>5.595671934285869</v>
       </c>
       <c r="E7">
-        <v>9.793400956365728</v>
+        <v>10.14025237663655</v>
       </c>
       <c r="F7">
-        <v>35.92603830809698</v>
+        <v>32.70241294423975</v>
       </c>
       <c r="I7">
-        <v>23.3356158564587</v>
+        <v>24.8346596535733</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.79951123773268</v>
+        <v>15.36434486837613</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73748352111701</v>
+        <v>13.48481472922662</v>
       </c>
       <c r="C8">
-        <v>19.17372056726702</v>
+        <v>10.99780735550255</v>
       </c>
       <c r="D8">
-        <v>4.349467571425685</v>
+        <v>5.588071362942139</v>
       </c>
       <c r="E8">
-        <v>10.54891049197187</v>
+        <v>10.28384239341818</v>
       </c>
       <c r="F8">
-        <v>38.79185430001134</v>
+        <v>33.42865767258559</v>
       </c>
       <c r="I8">
-        <v>24.63208846795456</v>
+        <v>25.07947543259222</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54812299139034</v>
+        <v>15.68876553340731</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24152748577691</v>
+        <v>14.71514471797221</v>
       </c>
       <c r="C9">
-        <v>22.5139619791156</v>
+        <v>12.42573084990086</v>
       </c>
       <c r="D9">
-        <v>4.369213534696406</v>
+        <v>5.578955306243857</v>
       </c>
       <c r="E9">
-        <v>12.00628045330315</v>
+        <v>10.58414530038612</v>
       </c>
       <c r="F9">
-        <v>44.25676927133702</v>
+        <v>34.88767319538274</v>
       </c>
       <c r="I9">
-        <v>27.23211308521705</v>
+        <v>25.60199335889818</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.68581518018189</v>
+        <v>16.34612047903157</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61932470129551</v>
+        <v>15.57613804973007</v>
       </c>
       <c r="C10">
-        <v>24.79575871062837</v>
+        <v>13.39029481927168</v>
       </c>
       <c r="D10">
-        <v>4.409221368675619</v>
+        <v>5.575887657324521</v>
       </c>
       <c r="E10">
-        <v>13.0648567950003</v>
+        <v>10.81450480607957</v>
       </c>
       <c r="F10">
-        <v>48.18208423104517</v>
+        <v>35.97033394873438</v>
       </c>
       <c r="I10">
-        <v>29.18129678120885</v>
+        <v>26.00966560446753</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.83147500771956</v>
+        <v>16.83682367501076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.66302395934283</v>
+        <v>15.9565892874352</v>
       </c>
       <c r="C11">
-        <v>25.80159352343351</v>
+        <v>13.80960601628261</v>
       </c>
       <c r="D11">
-        <v>4.434544699302494</v>
+        <v>5.575301518490003</v>
       </c>
       <c r="E11">
-        <v>13.61951777300204</v>
+        <v>10.92103699651739</v>
       </c>
       <c r="F11">
-        <v>49.95720531126661</v>
+        <v>36.46301176795999</v>
       </c>
       <c r="I11">
-        <v>30.07901976564068</v>
+        <v>26.19979741469472</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.7777192733939</v>
+        <v>17.06066679499266</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05324194050315</v>
+        <v>16.09890918209372</v>
       </c>
       <c r="C12">
-        <v>26.17836313785343</v>
+        <v>13.96551694292151</v>
       </c>
       <c r="D12">
-        <v>4.445312546164762</v>
+        <v>5.575197635071243</v>
       </c>
       <c r="E12">
-        <v>13.83079963008241</v>
+        <v>10.96159599427753</v>
       </c>
       <c r="F12">
-        <v>50.6681541045027</v>
+        <v>36.64942479311842</v>
       </c>
       <c r="I12">
-        <v>30.42089682170245</v>
+        <v>26.27242406880279</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.13222236439394</v>
+        <v>17.14543301364174</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96941630621541</v>
+        <v>16.0683377941323</v>
       </c>
       <c r="C13">
-        <v>26.09739326435901</v>
+        <v>13.93206752090488</v>
       </c>
       <c r="D13">
-        <v>4.44293840056566</v>
+        <v>5.575214730177832</v>
       </c>
       <c r="E13">
-        <v>13.78535713402061</v>
+        <v>10.95285173363883</v>
       </c>
       <c r="F13">
-        <v>50.51517678717276</v>
+        <v>36.60928699625619</v>
       </c>
       <c r="I13">
-        <v>30.34717487563536</v>
+        <v>26.25675542708172</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.0560353192385</v>
+        <v>17.12717837611481</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.695224961585</v>
+        <v>15.96833379208801</v>
       </c>
       <c r="C14">
-        <v>25.83266992616052</v>
+        <v>13.82249084809289</v>
       </c>
       <c r="D14">
-        <v>4.435405999390047</v>
+        <v>5.575290595958884</v>
       </c>
       <c r="E14">
-        <v>13.63692803404825</v>
+        <v>10.92436963692556</v>
       </c>
       <c r="F14">
-        <v>50.01575918171809</v>
+        <v>36.47835214910703</v>
       </c>
       <c r="I14">
-        <v>30.10710512560598</v>
+        <v>26.20576013297164</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80695802894947</v>
+        <v>17.0676410189105</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52663722361622</v>
+        <v>15.90684699436932</v>
       </c>
       <c r="C15">
-        <v>25.66999935582005</v>
+        <v>13.75499590023677</v>
       </c>
       <c r="D15">
-        <v>4.430950592745273</v>
+        <v>5.57535249246757</v>
       </c>
       <c r="E15">
-        <v>13.54582623626483</v>
+        <v>10.90695089177028</v>
       </c>
       <c r="F15">
-        <v>49.72005140322949</v>
+        <v>36.39812563306383</v>
       </c>
       <c r="I15">
-        <v>29.96031898361941</v>
+        <v>26.17460444790128</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65390889494953</v>
+        <v>17.03117034529852</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55038951209171</v>
+        <v>15.55103693038724</v>
       </c>
       <c r="C16">
-        <v>24.72941935909977</v>
+        <v>13.36249341152685</v>
       </c>
       <c r="D16">
-        <v>4.407722473013299</v>
+        <v>5.575942394237687</v>
       </c>
       <c r="E16">
-        <v>13.03344605269893</v>
+        <v>10.80757490680988</v>
       </c>
       <c r="F16">
-        <v>48.06610252524152</v>
+        <v>35.93812437175373</v>
       </c>
       <c r="I16">
-        <v>29.12287692450431</v>
+        <v>25.99733039093944</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.7690740117965</v>
+        <v>16.82219992993927</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.94206845856095</v>
+        <v>15.32978350985084</v>
       </c>
       <c r="C17">
-        <v>24.14450238533559</v>
+        <v>13.11666140962261</v>
       </c>
       <c r="D17">
-        <v>4.395400514988316</v>
+        <v>5.576512785499131</v>
       </c>
       <c r="E17">
-        <v>12.75808534147531</v>
+        <v>10.74703351810175</v>
       </c>
       <c r="F17">
-        <v>47.04808650855401</v>
+        <v>35.65584356837437</v>
       </c>
       <c r="I17">
-        <v>28.61216417255871</v>
+        <v>25.88974547933243</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.21892861716069</v>
+        <v>16.69409895210836</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58857343877549</v>
+        <v>15.20147533831053</v>
       </c>
       <c r="C18">
-        <v>23.80501145052303</v>
+        <v>12.97343566591451</v>
       </c>
       <c r="D18">
-        <v>4.388973395253936</v>
+        <v>5.576916939895633</v>
       </c>
       <c r="E18">
-        <v>12.59959913101373</v>
+        <v>10.71237751125715</v>
       </c>
       <c r="F18">
-        <v>46.46111673507734</v>
+        <v>35.4935093965065</v>
       </c>
       <c r="I18">
-        <v>28.3194264693879</v>
+        <v>25.82830875601758</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.89965993310327</v>
+        <v>16.62048205523952</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46825426558604</v>
+        <v>15.15785663744832</v>
       </c>
       <c r="C19">
-        <v>23.68952551984798</v>
+        <v>12.92463011156065</v>
       </c>
       <c r="D19">
-        <v>4.38690630174317</v>
+        <v>5.577066794536111</v>
       </c>
       <c r="E19">
-        <v>12.54591469587795</v>
+        <v>10.70067305321808</v>
       </c>
       <c r="F19">
-        <v>46.26211650259068</v>
+        <v>35.438555868739</v>
       </c>
       <c r="I19">
-        <v>28.22047564273488</v>
+        <v>25.80758481858025</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.79106020430382</v>
+        <v>16.59557023982356</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00719529959839</v>
+        <v>15.35344592453053</v>
       </c>
       <c r="C20">
-        <v>24.20708129261285</v>
+        <v>13.14302058600216</v>
       </c>
       <c r="D20">
-        <v>4.396642835979224</v>
+        <v>5.576444180007934</v>
       </c>
       <c r="E20">
-        <v>12.78740757299215</v>
+        <v>10.75346132932972</v>
       </c>
       <c r="F20">
-        <v>47.15660048424296</v>
+        <v>35.68589143010167</v>
       </c>
       <c r="I20">
-        <v>28.66642371433538</v>
+        <v>25.90115252174445</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.27778325335397</v>
+        <v>16.70772960140127</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77589357796763</v>
+        <v>15.99775584501317</v>
       </c>
       <c r="C21">
-        <v>25.91053290792619</v>
+        <v>13.85475465561813</v>
       </c>
       <c r="D21">
-        <v>4.437585130498972</v>
+        <v>5.575265094484147</v>
       </c>
       <c r="E21">
-        <v>13.68056306238645</v>
+        <v>10.93272987549718</v>
       </c>
       <c r="F21">
-        <v>50.16253628370502</v>
+        <v>36.51681643518535</v>
       </c>
       <c r="I21">
-        <v>30.17756372173477</v>
+        <v>26.22072201295261</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.88021758631862</v>
+        <v>17.08512921973647</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.90291148065308</v>
+        <v>16.40860581160182</v>
       </c>
       <c r="C22">
-        <v>27.00013065985624</v>
+        <v>14.30314344750958</v>
       </c>
       <c r="D22">
-        <v>4.471300033396878</v>
+        <v>5.575183488531004</v>
       </c>
       <c r="E22">
-        <v>14.29314484167852</v>
+        <v>11.05114521370705</v>
       </c>
       <c r="F22">
-        <v>52.22645302647953</v>
+        <v>37.05890226934631</v>
       </c>
       <c r="I22">
-        <v>31.17667818782198</v>
+        <v>26.43321700941573</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.9055176471646</v>
+        <v>17.33175323279508</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30387933880062</v>
+        <v>16.1903050849514</v>
       </c>
       <c r="C23">
-        <v>26.42057122340583</v>
+        <v>14.06538474865292</v>
       </c>
       <c r="D23">
-        <v>4.452612475035538</v>
+        <v>5.575163448426378</v>
       </c>
       <c r="E23">
-        <v>13.96685413153635</v>
+        <v>10.98784088834978</v>
       </c>
       <c r="F23">
-        <v>51.1263734405815</v>
+        <v>36.76972679851896</v>
       </c>
       <c r="I23">
-        <v>30.64223266022594</v>
+        <v>26.31948679637968</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.36013090452014</v>
+        <v>17.20015602917027</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97776320924349</v>
+        <v>15.34275158330508</v>
       </c>
       <c r="C24">
-        <v>24.17879941776797</v>
+        <v>13.13110949498587</v>
       </c>
       <c r="D24">
-        <v>4.396079147832755</v>
+        <v>5.576474959243225</v>
       </c>
       <c r="E24">
-        <v>12.77415156096628</v>
+        <v>10.75055484604014</v>
       </c>
       <c r="F24">
-        <v>47.10754665292522</v>
+        <v>35.67230692520238</v>
       </c>
       <c r="I24">
-        <v>28.64189026535666</v>
+        <v>25.89599410097914</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.25118439731012</v>
+        <v>16.70156708455363</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32954617598068</v>
+        <v>14.38913099362217</v>
       </c>
       <c r="C25">
-        <v>21.64217108824348</v>
+        <v>12.05383093295343</v>
       </c>
       <c r="D25">
-        <v>4.359879872468304</v>
+        <v>5.580791205327126</v>
       </c>
       <c r="E25">
-        <v>11.61453263523828</v>
+        <v>10.5010712863937</v>
       </c>
       <c r="F25">
-        <v>42.79510356359813</v>
+        <v>34.49033375985838</v>
       </c>
       <c r="I25">
-        <v>26.52244502635316</v>
+        <v>25.45630182426903</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.86646043311245</v>
+        <v>16.1665582578723</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65895741983901</v>
+        <v>21.24585287596728</v>
       </c>
       <c r="C2">
-        <v>11.2043421740263</v>
+        <v>19.65679783936464</v>
       </c>
       <c r="D2">
-        <v>5.586399925725559</v>
+        <v>4.34975203239228</v>
       </c>
       <c r="E2">
-        <v>10.32407531646839</v>
+        <v>10.75199295917133</v>
       </c>
       <c r="F2">
-        <v>33.62818623086564</v>
+        <v>39.55806285492939</v>
       </c>
       <c r="I2">
-        <v>25.14875172362442</v>
+        <v>24.98728089548721</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.77829257748993</v>
+        <v>19.00160569425093</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15024845339819</v>
+        <v>19.7443077813822</v>
       </c>
       <c r="C3">
-        <v>10.59599414025422</v>
+        <v>18.23135996649481</v>
       </c>
       <c r="D3">
-        <v>5.591683893182625</v>
+        <v>4.351184597293916</v>
       </c>
       <c r="E3">
-        <v>10.20885581676488</v>
+        <v>10.16114676093359</v>
       </c>
       <c r="F3">
-        <v>33.05243794692844</v>
+        <v>37.32414659280708</v>
       </c>
       <c r="I3">
-        <v>24.95110829641694</v>
+        <v>23.96147998601579</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.52038966883093</v>
+        <v>17.66385076543624</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83248428438939</v>
+        <v>18.77654075796262</v>
       </c>
       <c r="C4">
-        <v>10.20746421422591</v>
+        <v>17.3148324984768</v>
       </c>
       <c r="D4">
-        <v>5.595648450364507</v>
+        <v>4.355577189453363</v>
       </c>
       <c r="E4">
-        <v>10.14062121320593</v>
+        <v>9.795417379959847</v>
       </c>
       <c r="F4">
-        <v>32.70431194916925</v>
+        <v>35.93372189077205</v>
       </c>
       <c r="I4">
-        <v>24.83528284550419</v>
+        <v>23.33901860723277</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.36518962880919</v>
+        <v>16.80432731217246</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.7018695763316</v>
+        <v>18.37041684540011</v>
       </c>
       <c r="C5">
-        <v>10.04556421834095</v>
+        <v>16.93070140924248</v>
       </c>
       <c r="D5">
-        <v>5.597443460257481</v>
+        <v>4.358172309658179</v>
       </c>
       <c r="E5">
-        <v>10.11347197480437</v>
+        <v>9.645709369845415</v>
       </c>
       <c r="F5">
-        <v>32.56397969273642</v>
+        <v>35.36270922091352</v>
       </c>
       <c r="I5">
-        <v>24.78950267544478</v>
+        <v>23.08730059157012</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.30282391434682</v>
+        <v>16.44425420169908</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68012065065981</v>
+        <v>18.30226411946712</v>
       </c>
       <c r="C6">
-        <v>10.01847178260564</v>
+        <v>16.86626716223861</v>
       </c>
       <c r="D6">
-        <v>5.597752307453222</v>
+        <v>4.35864969359793</v>
       </c>
       <c r="E6">
-        <v>10.10900425618849</v>
+        <v>9.620812832536213</v>
       </c>
       <c r="F6">
-        <v>32.54077528743601</v>
+        <v>35.2676393659269</v>
       </c>
       <c r="I6">
-        <v>24.78198745753725</v>
+        <v>23.04562335015407</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.29252375947475</v>
+        <v>16.38386578876345</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.83072698592323</v>
+        <v>18.77111150146419</v>
       </c>
       <c r="C7">
-        <v>10.20529493959321</v>
+        <v>17.30969536825859</v>
       </c>
       <c r="D7">
-        <v>5.595671934285869</v>
+        <v>4.355609026826154</v>
       </c>
       <c r="E7">
-        <v>10.14025237663655</v>
+        <v>9.793400956365703</v>
       </c>
       <c r="F7">
-        <v>32.70241294423975</v>
+        <v>35.92603830809706</v>
       </c>
       <c r="I7">
-        <v>24.8346596535733</v>
+        <v>23.33561585645872</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.36434486837613</v>
+        <v>16.79951123773276</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.48481472922662</v>
+        <v>20.73748352111697</v>
       </c>
       <c r="C8">
-        <v>10.99780735550255</v>
+        <v>19.17372056726694</v>
       </c>
       <c r="D8">
-        <v>5.588071362942139</v>
+        <v>4.349467571425803</v>
       </c>
       <c r="E8">
-        <v>10.28384239341818</v>
+        <v>10.54891049197186</v>
       </c>
       <c r="F8">
-        <v>33.42865767258559</v>
+        <v>38.79185430001153</v>
       </c>
       <c r="I8">
-        <v>25.07947543259222</v>
+        <v>24.63208846795468</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.68876553340731</v>
+        <v>18.54812299139033</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.71514471797221</v>
+        <v>24.24152748577689</v>
       </c>
       <c r="C9">
-        <v>12.42573084990086</v>
+        <v>22.51396197911564</v>
       </c>
       <c r="D9">
-        <v>5.578955306243857</v>
+        <v>4.369213534696426</v>
       </c>
       <c r="E9">
-        <v>10.58414530038612</v>
+        <v>12.00628045330317</v>
       </c>
       <c r="F9">
-        <v>34.88767319538274</v>
+        <v>44.25676927133723</v>
       </c>
       <c r="I9">
-        <v>25.60199335889818</v>
+        <v>27.23211308521718</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.34612047903157</v>
+        <v>21.68581518018187</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57613804973007</v>
+        <v>26.61932470129555</v>
       </c>
       <c r="C10">
-        <v>13.39029481927168</v>
+        <v>24.79575871062847</v>
       </c>
       <c r="D10">
-        <v>5.575887657324521</v>
+        <v>4.409221368675801</v>
       </c>
       <c r="E10">
-        <v>10.81450480607957</v>
+        <v>13.06485679500035</v>
       </c>
       <c r="F10">
-        <v>35.97033394873438</v>
+        <v>48.18208423104545</v>
       </c>
       <c r="I10">
-        <v>26.00966560446753</v>
+        <v>29.181296781209</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.83682367501076</v>
+        <v>23.8314750077196</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.9565892874352</v>
+        <v>27.66302395934292</v>
       </c>
       <c r="C11">
-        <v>13.80960601628261</v>
+        <v>25.8015935234336</v>
       </c>
       <c r="D11">
-        <v>5.575301518490003</v>
+        <v>4.434544699302498</v>
       </c>
       <c r="E11">
-        <v>10.92103699651739</v>
+        <v>13.61951777300207</v>
       </c>
       <c r="F11">
-        <v>36.46301176795999</v>
+        <v>49.95720531126687</v>
       </c>
       <c r="I11">
-        <v>26.19979741469472</v>
+        <v>30.07901976564083</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.06066679499266</v>
+        <v>24.77771927339396</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.09890918209372</v>
+        <v>28.05324194050328</v>
       </c>
       <c r="C12">
-        <v>13.96551694292151</v>
+        <v>26.17836313785348</v>
       </c>
       <c r="D12">
-        <v>5.575197635071243</v>
+        <v>4.445312546164842</v>
       </c>
       <c r="E12">
-        <v>10.96159599427753</v>
+        <v>13.83079963008242</v>
       </c>
       <c r="F12">
-        <v>36.64942479311842</v>
+        <v>50.6681541045029</v>
       </c>
       <c r="I12">
-        <v>26.27242406880279</v>
+        <v>30.42089682170256</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.14543301364174</v>
+        <v>25.13222236439399</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.0683377941323</v>
+        <v>27.96941630621525</v>
       </c>
       <c r="C13">
-        <v>13.93206752090488</v>
+        <v>26.09739326435905</v>
       </c>
       <c r="D13">
-        <v>5.575214730177832</v>
+        <v>4.44293840056576</v>
       </c>
       <c r="E13">
-        <v>10.95285173363883</v>
+        <v>13.78535713402066</v>
       </c>
       <c r="F13">
-        <v>36.60928699625619</v>
+        <v>50.51517678717287</v>
       </c>
       <c r="I13">
-        <v>26.25675542708172</v>
+        <v>30.34717487563547</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.12717837611481</v>
+        <v>25.05603531923846</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96833379208801</v>
+        <v>27.69522496158502</v>
       </c>
       <c r="C14">
-        <v>13.82249084809289</v>
+        <v>25.83266992616073</v>
       </c>
       <c r="D14">
-        <v>5.575290595958884</v>
+        <v>4.435405999390025</v>
       </c>
       <c r="E14">
-        <v>10.92436963692556</v>
+        <v>13.63692803404828</v>
       </c>
       <c r="F14">
-        <v>36.47835214910703</v>
+        <v>50.01575918171831</v>
       </c>
       <c r="I14">
-        <v>26.20576013297164</v>
+        <v>30.10710512560605</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.0676410189105</v>
+        <v>24.80695802894956</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.90684699436932</v>
+        <v>27.52663722361626</v>
       </c>
       <c r="C15">
-        <v>13.75499590023677</v>
+        <v>25.6699993558201</v>
       </c>
       <c r="D15">
-        <v>5.57535249246757</v>
+        <v>4.430950592745416</v>
       </c>
       <c r="E15">
-        <v>10.90695089177028</v>
+        <v>13.54582623626492</v>
       </c>
       <c r="F15">
-        <v>36.39812563306383</v>
+        <v>49.72005140322978</v>
       </c>
       <c r="I15">
-        <v>26.17460444790128</v>
+        <v>29.96031898361959</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.03117034529852</v>
+        <v>24.65390889494961</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.55103693038724</v>
+        <v>26.55038951209166</v>
       </c>
       <c r="C16">
-        <v>13.36249341152685</v>
+        <v>24.72941935909969</v>
       </c>
       <c r="D16">
-        <v>5.575942394237687</v>
+        <v>4.40772247301339</v>
       </c>
       <c r="E16">
-        <v>10.80757490680988</v>
+        <v>13.0334460526989</v>
       </c>
       <c r="F16">
-        <v>35.93812437175373</v>
+        <v>48.0661025252416</v>
       </c>
       <c r="I16">
-        <v>25.99733039093944</v>
+        <v>29.12287692450445</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.82219992993927</v>
+        <v>23.7690740117965</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.32978350985084</v>
+        <v>25.94206845856097</v>
       </c>
       <c r="C17">
-        <v>13.11666140962261</v>
+        <v>24.14450238533551</v>
       </c>
       <c r="D17">
-        <v>5.576512785499131</v>
+        <v>4.395400514988335</v>
       </c>
       <c r="E17">
-        <v>10.74703351810175</v>
+        <v>12.75808534147533</v>
       </c>
       <c r="F17">
-        <v>35.65584356837437</v>
+        <v>47.04808650855422</v>
       </c>
       <c r="I17">
-        <v>25.88974547933243</v>
+        <v>28.61216417255887</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.69409895210836</v>
+        <v>23.21892861716072</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.20147533831053</v>
+        <v>25.58857343877538</v>
       </c>
       <c r="C18">
-        <v>12.97343566591451</v>
+        <v>23.80501145052284</v>
       </c>
       <c r="D18">
-        <v>5.576916939895633</v>
+        <v>4.388973395254137</v>
       </c>
       <c r="E18">
-        <v>10.71237751125715</v>
+        <v>12.59959913101368</v>
       </c>
       <c r="F18">
-        <v>35.4935093965065</v>
+        <v>46.4611167350773</v>
       </c>
       <c r="I18">
-        <v>25.82830875601758</v>
+        <v>28.31942646938795</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.62048205523952</v>
+        <v>22.8996599331032</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.15785663744832</v>
+        <v>25.46825426558618</v>
       </c>
       <c r="C19">
-        <v>12.92463011156065</v>
+        <v>23.68952551984802</v>
       </c>
       <c r="D19">
-        <v>5.577066794536111</v>
+        <v>4.386906301743023</v>
       </c>
       <c r="E19">
-        <v>10.70067305321808</v>
+        <v>12.54591469587799</v>
       </c>
       <c r="F19">
-        <v>35.438555868739</v>
+        <v>46.26211650259082</v>
       </c>
       <c r="I19">
-        <v>25.80758481858025</v>
+        <v>28.22047564273493</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.59557023982356</v>
+        <v>22.79106020430389</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.35344592453053</v>
+        <v>26.00719529959857</v>
       </c>
       <c r="C20">
-        <v>13.14302058600216</v>
+        <v>24.20708129261281</v>
       </c>
       <c r="D20">
-        <v>5.576444180007934</v>
+        <v>4.396642835979453</v>
       </c>
       <c r="E20">
-        <v>10.75346132932972</v>
+        <v>12.7874075729922</v>
       </c>
       <c r="F20">
-        <v>35.68589143010167</v>
+        <v>47.15660048424328</v>
       </c>
       <c r="I20">
-        <v>25.90115252174445</v>
+        <v>28.66642371433555</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.70772960140127</v>
+        <v>23.27778325335408</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.99775584501317</v>
+        <v>27.77589357796762</v>
       </c>
       <c r="C21">
-        <v>13.85475465561813</v>
+        <v>25.91053290792625</v>
       </c>
       <c r="D21">
-        <v>5.575265094484147</v>
+        <v>4.437585130498966</v>
       </c>
       <c r="E21">
-        <v>10.93272987549718</v>
+        <v>13.68056306238648</v>
       </c>
       <c r="F21">
-        <v>36.51681643518535</v>
+        <v>50.16253628370521</v>
       </c>
       <c r="I21">
-        <v>26.22072201295261</v>
+        <v>30.17756372173488</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.08512921973647</v>
+        <v>24.88021758631865</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.40860581160182</v>
+        <v>28.90291148065308</v>
       </c>
       <c r="C22">
-        <v>14.30314344750958</v>
+        <v>27.00013065985616</v>
       </c>
       <c r="D22">
-        <v>5.575183488531004</v>
+        <v>4.471300033396977</v>
       </c>
       <c r="E22">
-        <v>11.05114521370705</v>
+        <v>14.2931448416786</v>
       </c>
       <c r="F22">
-        <v>37.05890226934631</v>
+        <v>52.22645302647949</v>
       </c>
       <c r="I22">
-        <v>26.43321700941573</v>
+        <v>31.176678187822</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.33175323279508</v>
+        <v>25.90551764716464</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1903050849514</v>
+        <v>28.30387933880057</v>
       </c>
       <c r="C23">
-        <v>14.06538474865292</v>
+        <v>26.42057122340574</v>
       </c>
       <c r="D23">
-        <v>5.575163448426378</v>
+        <v>4.452612475035519</v>
       </c>
       <c r="E23">
-        <v>10.98784088834978</v>
+        <v>13.96685413153638</v>
       </c>
       <c r="F23">
-        <v>36.76972679851896</v>
+        <v>51.12637344058164</v>
       </c>
       <c r="I23">
-        <v>26.31948679637968</v>
+        <v>30.64223266022606</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.20015602917027</v>
+        <v>25.36013090452013</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.34275158330508</v>
+        <v>25.97776320924353</v>
       </c>
       <c r="C24">
-        <v>13.13110949498587</v>
+        <v>24.17879941776804</v>
       </c>
       <c r="D24">
-        <v>5.576474959243225</v>
+        <v>4.396079147832782</v>
       </c>
       <c r="E24">
-        <v>10.75055484604014</v>
+        <v>12.77415156096629</v>
       </c>
       <c r="F24">
-        <v>35.67230692520238</v>
+        <v>47.1075466529255</v>
       </c>
       <c r="I24">
-        <v>25.89599410097914</v>
+        <v>28.64189026535683</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.70156708455363</v>
+        <v>23.25118439731018</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.38913099362217</v>
+        <v>23.32954617598083</v>
       </c>
       <c r="C25">
-        <v>12.05383093295343</v>
+        <v>21.64217108824366</v>
       </c>
       <c r="D25">
-        <v>5.580791205327126</v>
+        <v>4.359879872468448</v>
       </c>
       <c r="E25">
-        <v>10.5010712863937</v>
+        <v>11.61453263523831</v>
       </c>
       <c r="F25">
-        <v>34.49033375985838</v>
+        <v>42.79510356359812</v>
       </c>
       <c r="I25">
-        <v>25.45630182426903</v>
+        <v>26.52244502635311</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.1665582578723</v>
+        <v>20.86646043311253</v>
       </c>
       <c r="N25">
         <v>0</v>
